--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxlbm\Desktop\IT2017\Yr 3 Sem 2\ETI\Week 4\ETI CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77653F96-24E7-4B4B-8A17-0A50459735F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4B99B-2158-4D3A-AF4B-64D6CC46AACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
+    <workbookView xWindow="19065" yWindow="4050" windowWidth="21600" windowHeight="11055" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,18 +51,9 @@
     <t>Viewing Home page</t>
   </si>
   <si>
-    <t>Viewing list of posts with a particular category</t>
-  </si>
-  <si>
     <t>Leaving a comment</t>
   </si>
   <si>
-    <t>Leaving a comment without entering the name</t>
-  </si>
-  <si>
-    <t>Leaving a comment without entering the comment body</t>
-  </si>
-  <si>
     <t>This is to test if the Home page can be viewed successfully.</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
   </si>
   <si>
     <t>This is to test if there will be an error message when a comment without a body is submitted.</t>
-  </si>
-  <si>
-    <t>Leaving a comment with a name of more than 60 characters</t>
   </si>
   <si>
     <t>This is to test if the author of the comment can be more than 60 characters.</t>
@@ -199,6 +187,18 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Viewing list of posts by category</t>
+  </si>
+  <si>
+    <t>Leaving a comment with the author more than 60 characters</t>
+  </si>
+  <si>
+    <t>Leaving a comment without an author</t>
+  </si>
+  <si>
+    <t>Leaving a comment without a body</t>
   </si>
 </sst>
 </file>
@@ -590,21 +590,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836015B-E344-4C03-9F7A-1A503866889C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="33.5859375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.29296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5859375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.41015625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1171875" style="2"/>
+    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="33.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -621,165 +621,165 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxlbm\Desktop\IT2017\Yr 3 Sem 2\ETI\Week 4\ETI CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4B99B-2158-4D3A-AF4B-64D6CC46AACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77653F96-24E7-4B4B-8A17-0A50459735F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="4050" windowWidth="21600" windowHeight="11055" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,18 @@
     <t>Viewing Home page</t>
   </si>
   <si>
+    <t>Viewing list of posts with a particular category</t>
+  </si>
+  <si>
     <t>Leaving a comment</t>
   </si>
   <si>
+    <t>Leaving a comment without entering the name</t>
+  </si>
+  <si>
+    <t>Leaving a comment without entering the comment body</t>
+  </si>
+  <si>
     <t>This is to test if the Home page can be viewed successfully.</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
   </si>
   <si>
     <t>This is to test if there will be an error message when a comment without a body is submitted.</t>
+  </si>
+  <si>
+    <t>Leaving a comment with a name of more than 60 characters</t>
   </si>
   <si>
     <t>This is to test if the author of the comment can be more than 60 characters.</t>
@@ -187,18 +199,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Viewing list of posts by category</t>
-  </si>
-  <si>
-    <t>Leaving a comment with the author more than 60 characters</t>
-  </si>
-  <si>
-    <t>Leaving a comment without an author</t>
-  </si>
-  <si>
-    <t>Leaving a comment without a body</t>
   </si>
 </sst>
 </file>
@@ -590,21 +590,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836015B-E344-4C03-9F7A-1A503866889C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="33.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="33.5859375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.29296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.5859375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.41015625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1171875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -621,165 +621,165 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxlbm\Desktop\IT2017\Yr 3 Sem 2\ETI\Week 4\ETI CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4B99B-2158-4D3A-AF4B-64D6CC46AACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8DCC0-82A6-4201-AC67-3711F8D1C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19065" yWindow="4050" windowWidth="21600" windowHeight="11055" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>The value shown in the author name text field should only be "ABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGH" and is missing an "I".</t>
-  </si>
-  <si>
-    <t>At the body text field, there will be an error prompt which says "Please fill out this field."</t>
-  </si>
-  <si>
-    <t>At the author name text field, there will be an error prompt which says "Please fill out this field."</t>
   </si>
   <si>
     <t>Test Steps</t>
@@ -199,6 +193,40 @@
   </si>
   <si>
     <t>Leaving a comment without a body</t>
+  </si>
+  <si>
+    <t>Same as expected outcome.</t>
+  </si>
+  <si>
+    <t>At the author name field, there will be an error when trying to submit the form since the field is invalid.</t>
+  </si>
+  <si>
+    <t>At the body text field, there will be an error when trying to submit the form since the field is invalid.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>This is to test if scrolling can be done successfully.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/projects
+2. Scroll to the bottom of the page.</t>
+  </si>
+  <si>
+    <t>The page should scroll down to the bottom.</t>
+  </si>
+  <si>
+    <t>Redirection in the website</t>
+  </si>
+  <si>
+    <t>This is to test if redirection in the website can be done successfully.</t>
+  </si>
+  <si>
+    <t>Scrolling in the website</t>
+  </si>
+  <si>
+    <t>The page should load successfully and display the "Blog" page.</t>
   </si>
 </sst>
 </file>
@@ -588,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836015B-E344-4C03-9F7A-1A503866889C}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -638,148 +666,226 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxlbm\Desktop\IT2017\Yr 3 Sem 2\ETI\Week 4\ETI CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E8DCC0-82A6-4201-AC67-3711F8D1C575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732587E-6C62-495D-ACD9-3414024DF9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>This is to test if there will be an error message when a comment without a body is submitted.</t>
-  </si>
-  <si>
-    <t>This is to test if the author of the comment can be more than 60 characters.</t>
   </si>
   <si>
     <t>This is to test if there will be an error message when a comment without an author is submitted.</t>
@@ -106,127 +103,209 @@
     <t>Test Steps</t>
   </si>
   <si>
+    <t>The blog post should be displayed along with its details such as title, body, categor(ies) and list of comments.</t>
+  </si>
+  <si>
+    <t>This is to test if the Blog post with its details such as title, body, categor(ies) and list of comments can be viewed.</t>
+  </si>
+  <si>
+    <t>The comment submitted will be added to the list of comments under that blog post.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Viewing list of posts by category</t>
+  </si>
+  <si>
+    <t>Leaving a comment without an author</t>
+  </si>
+  <si>
+    <t>Leaving a comment without a body</t>
+  </si>
+  <si>
+    <t>Same as expected outcome.</t>
+  </si>
+  <si>
+    <t>At the author name field, there will be an error when trying to submit the form since the field is invalid.</t>
+  </si>
+  <si>
+    <t>At the body text field, there will be an error when trying to submit the form since the field is invalid.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
     <t>1. Go to http://localhost:8000/projects
 2. Click on "Blog" in the navigation bar.
-3. Click on a blog post.</t>
-  </si>
-  <si>
-    <t>Input:
-- Blog post: "CCA"</t>
-  </si>
-  <si>
-    <t>Input: 
-- Category: "cca"</t>
+3. Click on the "cca" category beside the "CCA" blog post.</t>
   </si>
   <si>
     <t>1. Go to http://localhost:8000/projects
 2. Click on "Blog" in the navigation bar.
-3. Click on the category beside the "CCA" blog post.</t>
-  </si>
-  <si>
-    <t>Input:
-- Blog post: "Taspense"
-- Author name: "ABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHI"</t>
+3. Click on the "CCA" blog post.</t>
   </si>
   <si>
     <t>1. Go to http://localhost:8000/projects
 2. Click on "Blog" in the navigation bar.
-3. Click on a blog post.
-4. Try to enter an author name of more than 60 characters.</t>
-  </si>
-  <si>
-    <t>Input:
-- Blog post: "Taspense"</t>
-  </si>
-  <si>
-    <t>1. Go to http://localhost:8000/projects
-2. Click on "Blog" in the navigation bar.
-3. Click on a blog post.
-4. Click on the "Submit" button.</t>
-  </si>
-  <si>
-    <t>Input:
-- Blog post: "Taspense"
-- Author name: "Lee Zhi Xuan"</t>
-  </si>
-  <si>
-    <t>The blog post should be displayed along with its details such as title, body, categor(ies) and list of comments.</t>
-  </si>
-  <si>
-    <t>This is to test if the Blog post with its details such as title, body, categor(ies) and list of comments can be viewed.</t>
-  </si>
-  <si>
-    <t>1. Go to http://localhost:8000/projects
-2. Click on "Blog" in the navigation bar.
-3. Click on a blog post.
-4. Enter the author name.
-5. Click on the "Submit" button.</t>
-  </si>
-  <si>
-    <t>1. Go to http://localhost:8000/projects
-2. Click on "Blog" in the navigation bar.
-3. Click on a blog post.
+3. Click on the "Taspense" blog post.
 4. Enter the author name.
 5. Enter the body of the comment.
 6. Click on the "Submit" button.</t>
   </si>
   <si>
     <t>Input: 
-- Blog post: "Taspense"
 - Author name: "Lee Zhi Xuan"
 - Comment Body: "Test Comment 1"</t>
   </si>
   <si>
-    <t>The comment submitted will be added to the list of comments under that blog post.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Viewing list of posts by category</t>
-  </si>
-  <si>
-    <t>Leaving a comment with the author more than 60 characters</t>
-  </si>
-  <si>
-    <t>Leaving a comment without an author</t>
-  </si>
-  <si>
-    <t>Leaving a comment without a body</t>
-  </si>
-  <si>
-    <t>Same as expected outcome.</t>
-  </si>
-  <si>
-    <t>At the author name field, there will be an error when trying to submit the form since the field is invalid.</t>
-  </si>
-  <si>
-    <t>At the body text field, there will be an error when trying to submit the form since the field is invalid.</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>This is to test if scrolling can be done successfully.</t>
-  </si>
-  <si>
     <t>1. Go to http://localhost:8000/projects
-2. Scroll to the bottom of the page.</t>
-  </si>
-  <si>
-    <t>The page should scroll down to the bottom.</t>
-  </si>
-  <si>
-    <t>Redirection in the website</t>
-  </si>
-  <si>
-    <t>This is to test if redirection in the website can be done successfully.</t>
-  </si>
-  <si>
-    <t>Scrolling in the website</t>
-  </si>
-  <si>
-    <t>The page should load successfully and display the "Blog" page.</t>
+2. Click on "Blog" in the navigation bar.
+3. Click on the "Taspense" blog post.
+4. Try to enter an author name of more than 60 characters.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/projects
+2. Click on "Blog" in the navigation bar.
+3. Click on the "Taspense" blog post.
+4. Click on the "Submit" button.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/projects
+2. Click on "Blog" in the navigation bar.
+3. Click on the "Taspense" blog post.
+4. Enter the author name.
+5. Click on the "Submit" button.</t>
+  </si>
+  <si>
+    <t>Input:
+- Author name: "Lee Zhi Xuan"</t>
+  </si>
+  <si>
+    <t>Input:
+- Title: "Test Post 1"
+- Body: "Test Post Body"
+- Categories: "cca"</t>
+  </si>
+  <si>
+    <t>The blog post should be successfully created and should be viewable from the Blog page.</t>
+  </si>
+  <si>
+    <t>This was already implemented in the source codes. Initial commit in the Github repository does not include changes made to this feature.</t>
+  </si>
+  <si>
+    <t>Adding Comment object</t>
+  </si>
+  <si>
+    <t>Input: 
+- Author name: "Lee Zhi Xuan"
+- Comment Body: "Test Comment 1"
+- Post: id - 1</t>
+  </si>
+  <si>
+    <t>The comment should be successfully created and should be viewable at the list of comments under the post it was created.</t>
+  </si>
+  <si>
+    <t>Adding Category object</t>
+  </si>
+  <si>
+    <t>Input: 
+- Name: "projects"</t>
+  </si>
+  <si>
+    <t>The category should be successfully created and can be assigned to blog posts created.</t>
+  </si>
+  <si>
+    <t>Input: 
+- Name: "certificatesAndAwards"</t>
+  </si>
+  <si>
+    <t>There will be an error creating the Category object because the length of the category name should be 20 characters and below.</t>
+  </si>
+  <si>
+    <t>Adding Post object</t>
+  </si>
+  <si>
+    <t>Adding Category object with a name longer than 20 characters</t>
+  </si>
+  <si>
+    <t>Leaving a comment with the author longer than 60 characters</t>
+  </si>
+  <si>
+    <t>This is to test if the author of the comment can be longer than 60 characters.</t>
+  </si>
+  <si>
+    <t>Adding Post object with a title longer than 255 characters</t>
+  </si>
+  <si>
+    <t>Input:
+- Title (256 characters): "ABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUV"</t>
+  </si>
+  <si>
+    <t>Adding Comment object with an author longer than 60 characters</t>
+  </si>
+  <si>
+    <t>Input:
+- Author: "ABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHIJKLMNOPQRSTUVWXYZABCDEFGHI"</t>
+  </si>
+  <si>
+    <t>There will be an error creating the Comment object because the length of the author should be 60 characters and below.</t>
+  </si>
+  <si>
+    <t>This is to test if a Post object can be created successfully by calling the method to create the Post object.</t>
+  </si>
+  <si>
+    <t>This is to test if a Category object can be created successfully by calling the method to create a category object.</t>
+  </si>
+  <si>
+    <t>This is to test if a Category object with a name longer than 20 characters can be created successfully by calling the method to create a category object.</t>
+  </si>
+  <si>
+    <t>This is to test if a Comment object can be created successfully by calling the method to create a Comment object.</t>
+  </si>
+  <si>
+    <t>This is to test if a Comment object with an author longer than 60 characters can be created successfully by calling the method to create a Comment object.</t>
+  </si>
+  <si>
+    <t>This is to test whether a comment with emojis can be added successfully to a blog post.</t>
+  </si>
+  <si>
+    <t>Input: 
+- Author name: "Lee Zhi Xuan"
+- Comment Body: "Test Comment 😀"</t>
+  </si>
+  <si>
+    <t>Leaving a comment with emojis in it</t>
+  </si>
+  <si>
+    <t>Python does not allow emoji characters to be entered and requires the importing of an emoji module. Hence, this is not tested.</t>
+  </si>
+  <si>
+    <t>Check Home page title</t>
+  </si>
+  <si>
+    <t>Check Blog page title</t>
+  </si>
+  <si>
+    <t>This is to test if the Home page title is displayed correctly.</t>
+  </si>
+  <si>
+    <t>This is to test if the Blog page title is displayed correctly.</t>
+  </si>
+  <si>
+    <t>The Home page should load and show the title as "Home".</t>
+  </si>
+  <si>
+    <t>The Blog page should load and show the title as "Blog".</t>
+  </si>
+  <si>
+    <t>This is to test if a Post object with a title longer than 255 characters can be created successfully by calling the method to create a Post object.</t>
+  </si>
+  <si>
+    <t>There will be an error creating the Post object because the length of the title should be 255 characters and below.</t>
   </si>
 </sst>
 </file>
@@ -264,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -287,20 +366,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,23 +711,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836015B-E344-4C03-9F7A-1A503866889C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="33.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="33.5859375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36.29296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.1171875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.41015625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.1171875" style="3"/>
+    <col min="8" max="8" width="36.5859375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1171875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -649,243 +746,457 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="147.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="86" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxlbm\Desktop\IT2017\Yr 3 Sem 2\ETI\Week 4\ETI CA1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA79D5E6-5D1E-4A90-ACAC-2998E692859A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2831D-D1B0-4255-920C-8EA9A625C908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{5FFF84C8-027C-44D2-9C9A-FE84A56D8A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>Same as expected outcome.</t>
-  </si>
-  <si>
-    <t>At the author name field, there will be an error when trying to submit the form since the field is invalid.</t>
-  </si>
-  <si>
-    <t>At the body text field, there will be an error when trying to submit the form since the field is invalid.</t>
   </si>
   <si>
     <t>Pass</t>
@@ -350,11 +344,114 @@
   <si>
     <t>The Blog page should load and show the page title as "Blog".</t>
   </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Successful Login</t>
+  </si>
+  <si>
+    <t>This is to test whether a user can login successfully.</t>
+  </si>
+  <si>
+    <t>Login without entering a username</t>
+  </si>
+  <si>
+    <t>This is to test whether a user can successfully login without entering a username.</t>
+  </si>
+  <si>
+    <t>Login without entering a password</t>
+  </si>
+  <si>
+    <t>This is to test whether a user can successfully login without entering a password.</t>
+  </si>
+  <si>
+    <t>This is to test whether a user can successfully login with a wrong username.</t>
+  </si>
+  <si>
+    <t>Login with a wrong username and password</t>
+  </si>
+  <si>
+    <t>Login with a wrong password</t>
+  </si>
+  <si>
+    <t>This is to test whether a user can successfully login with a wrong password.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/admin.
+2. Click on the "Log in" button.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/admin.
+2. Enter the username.
+3. Click on the "Log in" button.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/admin.
+2. Enter a wrong username.
+3. Enter a wrong password.
+4. Click on the "Log in" button.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/admin.
+2. Enter a valid username.
+3. Enter a wrong password.
+4. Click on the "Log in" button.</t>
+  </si>
+  <si>
+    <t>1. Go to http://localhost:8000/admin.
+2. Enter a valid username.
+3. Enter a valid password.
+4. Click on the "Log in" button.</t>
+  </si>
+  <si>
+    <t>Input:
+- Username: "zxnlee"</t>
+  </si>
+  <si>
+    <t>Input:
+- Username: "zxnlee"
+- Password: "P@ssw0rd"</t>
+  </si>
+  <si>
+    <t>Input:
+- Username: "testuser1"
+- Password: "password"</t>
+  </si>
+  <si>
+    <t>Input:
+- Username: "zxnlee"
+- Password: "password"</t>
+  </si>
+  <si>
+    <t>The user will be logged in successfully and see the site administration page.</t>
+  </si>
+  <si>
+    <t>There will be an error message when trying to login since the password does not match to the user.</t>
+  </si>
+  <si>
+    <t>There will be an error message when trying to login since the user does not exist.</t>
+  </si>
+  <si>
+    <t>At the password field, there will be an error message when trying to login since the password is not entered.</t>
+  </si>
+  <si>
+    <t>At the username field, there will be an error message when trying to login since the username is not entered.</t>
+  </si>
+  <si>
+    <t>At the author name field, there will be an error message when trying to submit the form since the field is invalid.</t>
+  </si>
+  <si>
+    <t>At the body text field, there will be an error message when trying to submit the form since the field is invalid.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -398,19 +495,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -437,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,517 +838,720 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8836015B-E344-4C03-9F7A-1A503866889C}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="5.1171875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.87890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5859375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.29296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.41015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1171875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="129" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="215" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100.35" x14ac:dyDescent="0.5">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100.35" x14ac:dyDescent="0.5">
+      <c r="A13" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="86" x14ac:dyDescent="0.5">
+      <c r="A14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="157.69999999999999" x14ac:dyDescent="0.5">
+      <c r="A15" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A16" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="A18" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>50</v>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="86" x14ac:dyDescent="0.5">
+      <c r="A19" s="2">
+        <v>2.7</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>51</v>
+    </row>
+    <row r="20" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A20" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="A21" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="43" x14ac:dyDescent="0.5">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A23" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="57.35" x14ac:dyDescent="0.5">
+      <c r="A24" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
